--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T16:23:32+00:00</t>
+    <t>2022-02-16T17:04:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T17:04:16+00:00</t>
+    <t>2022-02-16T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:02:33+00:00</t>
+    <t>2022-02-16T18:21:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -818,6 +818,10 @@
   </si>
   <si>
     <t>RegulatedAuthorization.holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi)
+</t>
   </si>
   <si>
     <t>The organization that has been granted this authorization, by the regulator</t>
@@ -4561,13 +4565,13 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4633,7 +4637,7 @@
         <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>71</v>
@@ -4644,7 +4648,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4670,10 +4674,10 @@
         <v>201</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4724,7 +4728,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4739,7 +4743,7 @@
         <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>71</v>
@@ -4750,7 +4754,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4773,13 +4777,13 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4830,7 +4834,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4856,7 +4860,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4879,13 +4883,13 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4936,7 +4940,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -4951,7 +4955,7 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>71</v>
@@ -4962,7 +4966,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5068,7 +5072,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5176,11 +5180,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5202,10 +5206,10 @@
         <v>127</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>130</v>
@@ -5260,7 +5264,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5286,7 +5290,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5312,10 +5316,10 @@
         <v>139</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5366,7 +5370,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -5381,7 +5385,7 @@
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>71</v>
@@ -5392,7 +5396,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5418,10 +5422,10 @@
         <v>170</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5451,10 +5455,10 @@
         <v>215</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>71</v>
@@ -5472,7 +5476,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5487,7 +5491,7 @@
         <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>71</v>
@@ -5498,7 +5502,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5524,10 +5528,10 @@
         <v>170</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5578,7 +5582,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5604,7 +5608,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5627,13 +5631,13 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5684,7 +5688,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5699,7 +5703,7 @@
         <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>71</v>
@@ -5710,7 +5714,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5736,10 +5740,10 @@
         <v>71</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5790,7 +5794,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -5805,7 +5809,7 @@
         <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:21:09+00:00</t>
+    <t>2022-02-17T07:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:42:42+00:00</t>
+    <t>2022-02-17T14:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T14:13:17+00:00</t>
+    <t>2022-02-22T09:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T09:12:17+00:00</t>
+    <t>2022-02-22T11:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:48:03+00:00</t>
+    <t>2022-02-22T14:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$42</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:48:55+00:00</t>
+    <t>2022-02-22T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,14 +456,258 @@
     <t>Business identifier for the authorization, typically assigned by the authorizing body.</t>
   </si>
   <si>
+    <t>Marketing Authorisation.Marketing Authorisation Number</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.6.0</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/regulatedAuthIdSystems</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicinalProductDefinition)
+</t>
+  </si>
+  <si>
+    <t>The product type, treatment, facility or activity that is being authorized</t>
+  </si>
+  <si>
+    <t>The product type, treatment, facility or activity that is being authorized.</t>
+  </si>
+  <si>
+    <t>(the link to Medicinal Product or Packaged Medicinal Product)</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type</t>
+  </si>
+  <si>
+    <t>Overall type of this authorization, for example drug marketing approval, orphan drug designation</t>
+  </si>
+  <si>
+    <t>Overall type of this authorization, for example drug marketing approval, orphan drug designation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Overall type of this authorization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/regulated-authorization-type</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type.id</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type.extension</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Marketing Authorisation.Marketing Authorisation Number</t>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
   </si>
   <si>
     <t>spor</t>
@@ -475,223 +716,137 @@
     <t>SPOR (Europe)</t>
   </si>
   <si>
-    <t>EMA - SPOR product identifier</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>EMA - SPOR Referential</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type.coding.id</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type.coding.extension</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.6.0</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/pmswi</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.identifier.value</t>
-  </si>
-  <si>
-    <t>Marketing Authorisation</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicinalProductDefinition)
-</t>
-  </si>
-  <si>
-    <t>The product type, treatment, facility or activity that is being authorized</t>
-  </si>
-  <si>
-    <t>The product type, treatment, facility or activity that is being authorized.</t>
-  </si>
-  <si>
-    <t>(the link to Medicinal Product or Packaged Medicinal Product)</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.type</t>
-  </si>
-  <si>
-    <t>Overall type of this authorization, for example drug marketing approval, orphan drug designation</t>
-  </si>
-  <si>
-    <t>Overall type of this authorization, for example drug marketing approval, orphan drug designation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Overall type of this authorization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/regulated-authorization-type</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>RegulatedAuthorization.description</t>
@@ -701,7 +856,7 @@
 </t>
   </si>
   <si>
-    <t>General textual supporting information</t>
+    <t>General supporting information (textual)</t>
   </si>
   <si>
     <t>General textual supporting information.</t>
@@ -710,7 +865,7 @@
     <t>RegulatedAuthorization.region</t>
   </si>
   <si>
-    <t>The territory in which the authorization has been granted</t>
+    <t>The jusrisdiction in which the authorization has been granted</t>
   </si>
   <si>
     <t>The territory (e.g., country, jurisdiction etc.) in which the authorization has been granted.</t>
@@ -732,6 +887,14 @@
   </si>
   <si>
     <t>The status that is authorised e.g. approved. Intermediate states and actions can be tracked with cases and applications.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/publication-status"/&gt;
+    &lt;code value="active"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>The lifecycle status of an artifact.</t>
@@ -754,6 +917,9 @@
   </si>
   <si>
     <t>The date at which the current status was assigned.</t>
+  </si>
+  <si>
+    <t>2015-02-07T13:28:17Z</t>
   </si>
   <si>
     <t>Marketing Authorisation.Authorisation Status Date</t>
@@ -1090,21 +1256,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1271,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL42"/>
+  <dimension ref="A1:AL53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1280,7 +1431,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.69140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1304,7 +1455,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="90.8203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.5234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.8203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -1436,7 +1587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
@@ -1542,7 +1693,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>80</v>
       </c>
@@ -1650,7 +1801,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>88</v>
       </c>
@@ -1756,7 +1907,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -1864,7 +2015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>100</v>
       </c>
@@ -1972,7 +2123,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>109</v>
       </c>
@@ -2080,7 +2231,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>117</v>
       </c>
@@ -2188,7 +2339,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>125</v>
       </c>
@@ -2296,7 +2447,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>133</v>
       </c>
@@ -2406,7 +2557,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>138</v>
       </c>
@@ -2476,14 +2627,16 @@
         <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AB11" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AC11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>138</v>
@@ -2501,7 +2654,7 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>71</v>
@@ -2512,11 +2665,9 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2525,25 +2676,25 @@
         <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2594,44 +2745,44 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -2643,15 +2794,17 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>71</v>
@@ -2688,31 +2841,31 @@
         <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>71</v>
@@ -2721,46 +2874,48 @@
         <v>71</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>71</v>
       </c>
@@ -2784,43 +2939,41 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>71</v>
@@ -2829,12 +2982,12 @@
         <v>71</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2851,25 +3004,25 @@
         <v>71</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>71</v>
@@ -2879,7 +3032,7 @@
         <v>71</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>71</v>
@@ -2894,11 +3047,11 @@
         <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>71</v>
@@ -2916,7 +3069,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -2937,12 +3090,12 @@
         <v>71</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2950,7 +3103,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>81</v>
@@ -2965,19 +3118,19 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>71</v>
@@ -2990,7 +3143,7 @@
         <v>71</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>71</v>
@@ -3002,11 +3155,11 @@
         <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>71</v>
@@ -3024,7 +3177,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3045,12 +3198,12 @@
         <v>71</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3073,20 +3226,18 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>71</v>
       </c>
@@ -3095,10 +3246,10 @@
         <v>71</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>71</v>
@@ -3134,7 +3285,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3155,12 +3306,12 @@
         <v>71</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3183,17 +3334,15 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>71</v>
@@ -3206,7 +3355,7 @@
         <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>71</v>
@@ -3242,7 +3391,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3263,12 +3412,12 @@
         <v>71</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3291,15 +3440,17 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>71</v>
@@ -3348,7 +3499,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3369,12 +3520,12 @@
         <v>71</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3385,7 +3536,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -3397,17 +3548,15 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>71</v>
@@ -3456,13 +3605,13 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -3471,16 +3620,16 @@
         <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>207</v>
       </c>
@@ -3493,7 +3642,7 @@
         <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -3505,13 +3654,13 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3538,13 +3687,13 @@
         <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>71</v>
@@ -3568,7 +3717,7 @@
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3577,7 +3726,7 @@
         <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>71</v>
@@ -3588,7 +3737,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3602,22 +3751,22 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3644,13 +3793,13 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>71</v>
@@ -3668,7 +3817,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3680,32 +3829,32 @@
         <v>71</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3714,18 +3863,20 @@
         <v>71</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>71</v>
@@ -3762,45 +3913,45 @@
         <v>71</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3814,7 +3965,7 @@
         <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>71</v>
@@ -3823,16 +3974,20 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>71</v>
       </c>
@@ -3856,28 +4011,26 @@
         <v>71</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>222</v>
@@ -3895,20 +4048,22 @@
         <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>71</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>71</v>
       </c>
@@ -3917,10 +4072,10 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>71</v>
@@ -3929,16 +4084,20 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>71</v>
       </c>
@@ -3962,13 +4121,13 @@
         <v>71</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>71</v>
@@ -3986,13 +4145,13 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -4001,18 +4160,18 @@
         <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>71</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4026,22 +4185,22 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4092,7 +4251,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -4104,32 +4263,32 @@
         <v>71</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -4138,18 +4297,20 @@
         <v>71</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>71</v>
@@ -4186,45 +4347,45 @@
         <v>71</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4232,7 +4393,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>81</v>
@@ -4247,16 +4408,20 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>71</v>
       </c>
@@ -4265,7 +4430,7 @@
         <v>71</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>71</v>
@@ -4304,7 +4469,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -4319,18 +4484,18 @@
         <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>71</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4353,15 +4518,17 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>71</v>
@@ -4386,13 +4553,13 @@
         <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>71</v>
@@ -4410,7 +4577,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4425,18 +4592,18 @@
         <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>71</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4444,10 +4611,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -4459,16 +4626,18 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4492,13 +4661,13 @@
         <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>71</v>
@@ -4516,13 +4685,13 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
@@ -4531,18 +4700,18 @@
         <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>257</v>
+        <v>71</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>71</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4550,7 +4719,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>81</v>
@@ -4565,16 +4734,18 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>259</v>
+        <v>144</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>71</v>
       </c>
@@ -4622,7 +4793,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4637,18 +4808,18 @@
         <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>71</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4671,16 +4842,20 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>71</v>
       </c>
@@ -4728,7 +4903,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4743,18 +4918,18 @@
         <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>266</v>
+        <v>71</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>71</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4765,7 +4940,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4777,16 +4952,20 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>71</v>
       </c>
@@ -4834,13 +5013,13 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4849,18 +5028,18 @@
         <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>71</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4883,13 +5062,13 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4940,7 +5119,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -4955,7 +5134,7 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>71</v>
@@ -4964,9 +5143,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4977,7 +5156,7 @@
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4986,16 +5165,16 @@
         <v>71</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5022,13 +5201,13 @@
         <v>71</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>71</v>
+        <v>277</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>71</v>
+        <v>278</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>71</v>
@@ -5046,44 +5225,44 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -5092,20 +5271,18 @@
         <v>71</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>71</v>
@@ -5118,7 +5295,7 @@
         <v>71</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>71</v>
@@ -5130,13 +5307,13 @@
         <v>71</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>71</v>
@@ -5154,69 +5331,65 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>279</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>71</v>
       </c>
@@ -5228,7 +5401,7 @@
         <v>71</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>71</v>
+        <v>291</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>71</v>
@@ -5264,33 +5437,33 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5313,13 +5486,13 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5370,7 +5543,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -5385,7 +5558,7 @@
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>71</v>
@@ -5394,9 +5567,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5419,13 +5592,13 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5452,13 +5625,13 @@
         <v>71</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>290</v>
+        <v>71</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>71</v>
@@ -5476,7 +5649,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5491,7 +5664,7 @@
         <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>71</v>
@@ -5500,9 +5673,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5525,13 +5698,13 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5561,10 +5734,10 @@
         <v>105</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>71</v>
@@ -5582,7 +5755,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5597,7 +5770,7 @@
         <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>71</v>
@@ -5606,9 +5779,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5619,7 +5792,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5631,13 +5804,13 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>297</v>
+        <v>165</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5664,13 +5837,13 @@
         <v>71</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>71</v>
+        <v>310</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>71</v>
@@ -5688,13 +5861,13 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5703,7 +5876,7 @@
         <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>71</v>
@@ -5712,9 +5885,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5722,10 +5895,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -5737,13 +5910,13 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5794,13 +5967,13 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
@@ -5809,34 +5982,1188 @@
         <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL42">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI41">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:32:49+00:00</t>
+    <t>2022-02-22T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:56:55+00:00</t>
+    <t>2022-02-22T17:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T17:53:34+00:00</t>
+    <t>2022-02-24T10:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T10:57:23+00:00</t>
+    <t>2022-02-24T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="370">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T14:55:32+00:00</t>
+    <t>2022-03-17T13:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -644,7 +644,7 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicinalProductDefinition)
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -950,6 +950,40 @@
     <t>Condition for which the use of the regulated product applies.</t>
   </si>
   <si>
+    <t>RegulatedAuthorization.indication.id</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.indication.extension</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.indication.concept</t>
+  </si>
+  <si>
+    <t>Reference to a concept (by class)</t>
+  </si>
+  <si>
+    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+  </si>
+  <si>
+    <t>CodeableReference.concept</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.indication.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-indication-uv-epi)
+</t>
+  </si>
+  <si>
+    <t>Reference to a resource (by instance)</t>
+  </si>
+  <si>
+    <t>A reference to a resource the provides exact details about the information being referenced.</t>
+  </si>
+  <si>
+    <t>CodeableReference.reference</t>
+  </si>
+  <si>
     <t>RegulatedAuthorization.intendedUse</t>
   </si>
   <si>
@@ -1031,7 +1065,7 @@
 </t>
   </si>
   <si>
-    <t>The case or regulatory procedure for granting or amending a regulated authorization. Note: This area is subject to ongoing review and the workgroup is seeking implementer feedback on its use (see link at bottom of page)</t>
+    <t>The case or regulatory procedure for granting or amending a regulated authorization.</t>
   </si>
   <si>
     <t>The case or regulatory procedure for granting or amending a regulated authorization. An authorization is granted in response to submissions/applications by those seeking authorization. A case is the administrative process that deals with the application(s) that relate to this and assesses them. Note: This area is subject to ongoing review and the workgroup is seeking implementer feedback on its use (see link at bottom of page).</t>
@@ -1422,7 +1456,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL53"/>
+  <dimension ref="A1:AL57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1441,7 +1475,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="205.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5695,16 +5729,16 @@
         <v>71</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
+        <v>146</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5731,13 +5765,13 @@
         <v>71</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>304</v>
+        <v>71</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>305</v>
+        <v>71</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>71</v>
@@ -5755,7 +5789,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>147</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5767,25 +5801,25 @@
         <v>71</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>71</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5801,18 +5835,20 @@
         <v>71</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>307</v>
+        <v>128</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>71</v>
@@ -5837,31 +5873,31 @@
         <v>71</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>309</v>
+        <v>71</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>310</v>
+        <v>71</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5873,21 +5909,21 @@
         <v>71</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>311</v>
+        <v>71</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5895,7 +5931,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>81</v>
@@ -5910,13 +5946,13 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5967,7 +6003,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -5982,18 +6018,18 @@
         <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6001,7 +6037,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>81</v>
@@ -6016,13 +6052,13 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6073,7 +6109,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -6088,18 +6124,18 @@
         <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6110,7 +6146,7 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
@@ -6122,13 +6158,13 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6155,13 +6191,13 @@
         <v>71</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>71</v>
+        <v>315</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>71</v>
+        <v>316</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>71</v>
@@ -6179,13 +6215,13 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
@@ -6205,7 +6241,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6216,7 +6252,7 @@
         <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>71</v>
@@ -6228,13 +6264,13 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6261,13 +6297,13 @@
         <v>71</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>71</v>
+        <v>321</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>71</v>
@@ -6285,13 +6321,13 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>71</v>
@@ -6300,7 +6336,7 @@
         <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>71</v>
@@ -6311,7 +6347,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6319,7 +6355,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>81</v>
@@ -6331,16 +6367,16 @@
         <v>71</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>145</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>146</v>
+        <v>326</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6391,7 +6427,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>147</v>
+        <v>323</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6403,32 +6439,32 @@
         <v>71</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>71</v>
+        <v>327</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>148</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>71</v>
@@ -6437,20 +6473,18 @@
         <v>71</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>127</v>
+        <v>324</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>128</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>71</v>
@@ -6499,28 +6533,28 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>154</v>
+        <v>328</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>71</v>
+        <v>331</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>148</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48">
@@ -6529,7 +6563,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6542,13 +6576,13 @@
         <v>71</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>127</v>
+        <v>333</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>334</v>
@@ -6556,12 +6590,8 @@
       <c r="L48" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>71</v>
       </c>
@@ -6609,7 +6639,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6621,21 +6651,21 @@
         <v>71</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6658,7 +6688,7 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>139</v>
+        <v>337</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>338</v>
@@ -6715,7 +6745,7 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -6761,16 +6791,16 @@
         <v>71</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>342</v>
+        <v>145</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>343</v>
+        <v>146</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6797,13 +6827,13 @@
         <v>71</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>344</v>
+        <v>71</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>345</v>
+        <v>71</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>71</v>
@@ -6821,7 +6851,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>341</v>
+        <v>147</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -6833,32 +6863,32 @@
         <v>71</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>346</v>
+        <v>71</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>71</v>
@@ -6867,18 +6897,20 @@
         <v>71</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>348</v>
+        <v>128</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>71</v>
@@ -6903,13 +6935,13 @@
         <v>71</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>284</v>
+        <v>71</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>71</v>
@@ -6927,65 +6959,69 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>347</v>
+        <v>154</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>71</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>71</v>
+        <v>344</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>351</v>
+        <v>127</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>71</v>
       </c>
@@ -7033,33 +7069,33 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>354</v>
+        <v>71</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7070,7 +7106,7 @@
         <v>72</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>71</v>
@@ -7082,13 +7118,13 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7139,13 +7175,13 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>71</v>
@@ -7154,12 +7190,436 @@
         <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="357">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,7 +237,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Regulatory approval, clearance or licencing related to a regulated product, treatment, facility or activity e.g. Market Authorization for a Medicinal Product</t>
+    <t>Regulatory approval, clearance or licencing related to a regulated product, treatment, facility or activity that is cited in a guidance, regulation, rule or legislative act. An example is Market Authorization relating to a Medicinal Product</t>
   </si>
   <si>
     <t>Regulatory approval, clearance or licencing related to a regulated product, treatment, facility or activity that is cited in a guidance, regulation, rule or legislative act. An example is Market Authorization relating to a Medicinal Product.</t>
@@ -515,7 +515,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -666,15 +666,6 @@
     <t>Overall type of this authorization, for example drug marketing approval, orphan drug designation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Overall type of this authorization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/regulated-authorization-type</t>
-  </si>
-  <si>
     <t>RegulatedAuthorization.type.id</t>
   </si>
   <si>
@@ -871,12 +862,6 @@
     <t>The territory (e.g., country, jurisdiction etc.) in which the authorization has been granted.</t>
   </si>
   <si>
-    <t>Jurisdiction codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
-  </si>
-  <si>
     <t>Marketing Authorisation.Country</t>
   </si>
   <si>
@@ -886,7 +871,7 @@
     <t>The status that is authorised e.g. approved. Intermediate states can be tracked with cases and applications</t>
   </si>
   <si>
-    <t>The status that is authorised e.g. approved. Intermediate states and actions can be tracked with cases and applications.</t>
+    <t>The status that is authorised e.g. approved. Intermediate states can be tracked with cases and applications.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -897,12 +882,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status</t>
-  </si>
-  <si>
     <t>Marketing Authorisation.Authorisation Status</t>
   </si>
   <si>
@@ -928,7 +907,7 @@
     <t>RegulatedAuthorization.validityPeriod</t>
   </si>
   <si>
-    <t>The time period in which the regulatory approval etc. is in effect, e.g. a Marketing Authorization includes the date of authorization and/or expiration date</t>
+    <t>The time period in which the regulatory approval, clearance or licencing is in effect. As an example, a Marketing Authorization includes the date of authorization and/or an expiration date</t>
   </si>
   <si>
     <t>The time period in which the regulatory approval, clearance or licencing is in effect. As an example, a Marketing Authorization includes the date of authorization and/or an expiration date.</t>
@@ -944,7 +923,7 @@
 </t>
   </si>
   <si>
-    <t>Condition for which the use of the regulated product applies</t>
+    <t>Condition for which the use of the regulated product  applies</t>
   </si>
   <si>
     <t>Condition for which the use of the regulated product applies.</t>
@@ -962,7 +941,7 @@
     <t>Reference to a concept (by class)</t>
   </si>
   <si>
-    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+    <t>A reference to a concept - e.g. the information is identified by it's general classto the degree of precision found in the terminology.</t>
   </si>
   <si>
     <t>CodeableReference.concept</t>
@@ -990,28 +969,16 @@
     <t>The intended use of the product, e.g. prevention, treatment</t>
   </si>
   <si>
-    <t>The intended use of the product, e.g. prevention, treatment, diagnosis.</t>
-  </si>
-  <si>
-    <t>The overall intended use of a product.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/product-intended-use</t>
+    <t>The intended use of the product, e.g. prevention, treatment.</t>
   </si>
   <si>
     <t>RegulatedAuthorization.basis</t>
   </si>
   <si>
-    <t>The legal/regulatory framework or reasons under which this authorization is granted</t>
+    <t>The legal or regulatory framework against which this authorization is granted, or other reasons for it</t>
   </si>
   <si>
     <t>The legal or regulatory framework against which this authorization is granted, or other reasons for it.</t>
-  </si>
-  <si>
-    <t>A legal or regulatory framework against which an authorization is granted, or other reasons for it.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/regulated-authorization-basis</t>
   </si>
   <si>
     <t>Marketing Authorisation.Status Reasons.Legal Grounds</t>
@@ -1024,10 +991,10 @@
 </t>
   </si>
   <si>
-    <t>The organization that has been granted this authorization, by the regulator</t>
-  </si>
-  <si>
-    <t>The organization that has been granted this authorization, by some authoritative body (the 'regulator').</t>
+    <t>The organization that holds the granted authorization</t>
+  </si>
+  <si>
+    <t>The organization that holds the granted authorization.</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Holder (Organisation)</t>
@@ -1068,7 +1035,7 @@
     <t>The case or regulatory procedure for granting or amending a regulated authorization.</t>
   </si>
   <si>
-    <t>The case or regulatory procedure for granting or amending a regulated authorization. An authorization is granted in response to submissions/applications by those seeking authorization. A case is the administrative process that deals with the application(s) that relate to this and assesses them. Note: This area is subject to ongoing review and the workgroup is seeking implementer feedback on its use (see link at bottom of page).</t>
+    <t>The case or regulatory procedure for granting or amending a marketing authorization. Note: This area is subject to ongoing review and the workgroup is seeking implementer feedback on its use (see link at bottom of page).</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Procedure, Marketing Authorisation Procedure.Marketing Authorisation Application</t>
@@ -1118,12 +1085,6 @@
     <t>The defining type of case.</t>
   </si>
   <si>
-    <t>The type of a case involved in an application.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/regulated-authorization-case-type</t>
-  </si>
-  <si>
     <t>Marketing Authorisation Procedure.Procedure Type, Marketing Authorisation Application.Application Type</t>
   </si>
   <si>
@@ -1143,10 +1104,10 @@
 dateTime</t>
   </si>
   <si>
-    <t>Relevant date for this case</t>
-  </si>
-  <si>
-    <t>Relevant date for this case.</t>
+    <t>Relevant date for this of case</t>
+  </si>
+  <si>
+    <t>Relevant date for this of case.</t>
   </si>
   <si>
     <t>Marketing Authorisation Procedure.Procedure Date Start, Marketing Authorisation Procedure.Procedure Date End, Marketing Authorisation Application.Application Date</t>
@@ -1155,10 +1116,10 @@
     <t>RegulatedAuthorization.case.application</t>
   </si>
   <si>
-    <t>Applications submitted to obtain a regulated authorization. Steps within the longer running case or procedure</t>
-  </si>
-  <si>
-    <t>A regulatory submission from an organization to a regulator, as part of an assessing case. Multiple applications may occur over time, with more or different information to support or modify the submission or the authorization. The applications can be considered as steps within the longer running case or procedure for this authorization process.</t>
+    <t>Applications submitted to obtain a marketing authorization. Steps within the longer running case or procedure</t>
+  </si>
+  <si>
+    <t>Applications submitted to obtain a marketing authorization. Steps within the longer running case or procedure.</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Application</t>
@@ -1475,7 +1436,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.39453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="214.9375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1488,7 +1449,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="90.8203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="65.8203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -3721,13 +3682,13 @@
         <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>71</v>
@@ -3771,7 +3732,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3877,7 +3838,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3985,7 +3946,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4008,19 +3969,19 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>71</v>
@@ -4057,7 +4018,7 @@
         <v>71</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
@@ -4067,7 +4028,7 @@
         <v>153</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -4088,15 +4049,15 @@
         <v>71</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>71</v>
@@ -4118,19 +4079,19 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="N25" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>71</v>
@@ -4179,7 +4140,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4200,12 +4161,12 @@
         <v>71</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4311,7 +4272,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4419,7 +4380,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4445,16 +4406,16 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>71</v>
@@ -4464,7 +4425,7 @@
         <v>71</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>71</v>
@@ -4503,7 +4464,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -4524,12 +4485,12 @@
         <v>71</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4555,13 +4516,13 @@
         <v>144</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4611,7 +4572,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4632,12 +4593,12 @@
         <v>71</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4663,14 +4624,14 @@
         <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>71</v>
@@ -4719,7 +4680,7 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4740,12 +4701,12 @@
         <v>71</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4771,14 +4732,14 @@
         <v>144</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>71</v>
@@ -4827,7 +4788,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4848,12 +4809,12 @@
         <v>71</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4876,19 +4837,19 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>71</v>
@@ -4937,7 +4898,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4958,12 +4919,12 @@
         <v>71</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4989,16 +4950,16 @@
         <v>144</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>71</v>
@@ -5047,7 +5008,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -5068,12 +5029,12 @@
         <v>71</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5096,13 +5057,13 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5153,7 +5114,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5179,7 +5140,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5205,10 +5166,10 @@
         <v>165</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5235,13 +5196,13 @@
         <v>71</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>278</v>
+        <v>71</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>71</v>
@@ -5259,7 +5220,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5274,7 +5235,7 @@
         <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>71</v>
@@ -5285,7 +5246,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5311,10 +5272,10 @@
         <v>165</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5329,7 +5290,7 @@
         <v>71</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>71</v>
@@ -5341,13 +5302,13 @@
         <v>71</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>284</v>
+        <v>71</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>71</v>
@@ -5365,7 +5326,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5380,7 +5341,7 @@
         <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>71</v>
@@ -5391,7 +5352,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5414,13 +5375,13 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5435,7 +5396,7 @@
         <v>71</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>71</v>
@@ -5471,7 +5432,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5486,7 +5447,7 @@
         <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>71</v>
@@ -5497,7 +5458,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5523,10 +5484,10 @@
         <v>190</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5577,7 +5538,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -5592,7 +5553,7 @@
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>71</v>
@@ -5603,7 +5564,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5626,13 +5587,13 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5683,7 +5644,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5709,7 +5670,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5815,7 +5776,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5923,7 +5884,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5949,10 +5910,10 @@
         <v>165</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6003,7 +5964,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -6029,7 +5990,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6052,13 +6013,13 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6109,7 +6070,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -6135,7 +6096,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6161,10 +6122,10 @@
         <v>165</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6191,13 +6152,13 @@
         <v>71</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>71</v>
@@ -6215,7 +6176,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6241,7 +6202,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6267,10 +6228,10 @@
         <v>165</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6297,13 +6258,13 @@
         <v>71</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>321</v>
+        <v>71</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>71</v>
@@ -6321,7 +6282,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -6336,7 +6297,7 @@
         <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>71</v>
@@ -6347,7 +6308,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6370,13 +6331,13 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6427,7 +6388,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6442,7 +6403,7 @@
         <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>71</v>
@@ -6453,7 +6414,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6476,13 +6437,13 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6533,7 +6494,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -6548,7 +6509,7 @@
         <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>71</v>
@@ -6559,7 +6520,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6582,13 +6543,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6639,7 +6600,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6665,7 +6626,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6688,13 +6649,13 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6745,7 +6706,7 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -6760,7 +6721,7 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>71</v>
@@ -6771,7 +6732,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6877,7 +6838,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6985,11 +6946,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7011,10 +6972,10 @@
         <v>127</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>130</v>
@@ -7069,7 +7030,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -7095,7 +7056,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7121,10 +7082,10 @@
         <v>139</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7175,7 +7136,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -7190,7 +7151,7 @@
         <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>71</v>
@@ -7201,7 +7162,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7227,10 +7188,10 @@
         <v>165</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7257,13 +7218,13 @@
         <v>71</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>355</v>
+        <v>71</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>356</v>
+        <v>71</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>71</v>
@@ -7281,7 +7242,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7296,7 +7257,7 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>71</v>
@@ -7307,7 +7268,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7333,10 +7294,10 @@
         <v>165</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7363,13 +7324,13 @@
         <v>71</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>284</v>
+        <v>71</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>71</v>
@@ -7387,7 +7348,7 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7413,7 +7374,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7436,13 +7397,13 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7493,7 +7454,7 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -7508,7 +7469,7 @@
         <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>71</v>
@@ -7519,7 +7480,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7545,10 +7506,10 @@
         <v>71</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7599,7 +7560,7 @@
         <v>71</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
@@ -7614,7 +7575,7 @@
         <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1426,42 +1426,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.61328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="214.9375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.8203125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.82421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.91796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="154.84765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="154.8515625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/RegulatedAuthorization-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/RegulatedAuthorization-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,7 +570,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/regulatedAuthIdSystems</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/ValueSet/regulatedAuthIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -644,7 +644,7 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -704,10 +704,10 @@
     <t>spor</t>
   </si>
   <si>
-    <t>SPOR (Europe)</t>
-  </si>
-  <si>
-    <t>EMA - SPOR Referential</t>
+    <t>Type of authorization</t>
+  </si>
+  <si>
+    <t>The type of regulatory authorization under which the medicinal product(s) are approved for sale in the country or region.</t>
   </si>
   <si>
     <t>RegulatedAuthorization.type.coding.id</t>
@@ -847,7 +847,7 @@
 </t>
   </si>
   <si>
-    <t>General supporting information (textual)</t>
+    <t>Brief description of the authorization</t>
   </si>
   <si>
     <t>General textual supporting information.</t>
@@ -868,7 +868,7 @@
     <t>RegulatedAuthorization.status</t>
   </si>
   <si>
-    <t>The status that is authorised e.g. approved. Intermediate states can be tracked with cases and applications</t>
+    <t>The current status of this authorization</t>
   </si>
   <si>
     <t>The status that is authorised e.g. approved. Intermediate states can be tracked with cases and applications.</t>
@@ -950,11 +950,11 @@
     <t>RegulatedAuthorization.indication.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-indication-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ClinicalUseDefinition-indication-uv-epi)
 </t>
   </si>
   <si>
-    <t>Reference to a resource (by instance)</t>
+    <t xml:space="preserve">Reference to the </t>
   </si>
   <si>
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
@@ -987,7 +987,7 @@
     <t>RegulatedAuthorization.holder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>
@@ -1032,7 +1032,7 @@
 </t>
   </si>
   <si>
-    <t>The case or regulatory procedure for granting or amending a regulated authorization.</t>
+    <t>The regulatory procedure for granting or amending a regulated authorization.</t>
   </si>
   <si>
     <t>The case or regulatory procedure for granting or amending a marketing authorization. Note: This area is subject to ongoing review and the workgroup is seeking implementer feedback on its use (see link at bottom of page).</t>
@@ -1450,7 +1450,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.82421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.87109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
